--- a/Corte de Apelaciones de Arica/1-2013303#4#1-C-ingresos-2020-4.xlsx
+++ b/Corte de Apelaciones de Arica/1-2013303#4#1-C-ingresos-2020-4.xlsx
@@ -61,12 +61,12 @@
     <t>Minera, Manifestación (Concesión Para Explotación)</t>
   </si>
   <si>
+    <t>Liquidación Voluntaria Empresa Deudora</t>
+  </si>
+  <si>
     <t>Bienes Raíces, Reclamo Negativa Del Conservador</t>
   </si>
   <si>
-    <t>Liquidación Voluntaria Empresa Deudora</t>
-  </si>
-  <si>
     <t>Hacienda,Proced.cuantía Superior Art.. 749 C.p.c</t>
   </si>
   <si>
@@ -79,10 +79,10 @@
     <t>Partición, Aprobación De Escritura De</t>
   </si>
   <si>
+    <t>Contrato, Cumplimiento De</t>
+  </si>
+  <si>
     <t>Otros Ordinarios</t>
-  </si>
-  <si>
-    <t>Contrato, Cumplimiento De</t>
   </si>
   <si>
     <t>Otros Sumarios</t>
